--- a/LOVE DCF.xlsx
+++ b/LOVE DCF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8235B-D35E-4F9E-AC6D-6848C2E0A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83323D6B-4941-46BB-9590-B82850696C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AED10510-8238-4EDE-B018-BD7F77967871}"/>
   </bookViews>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -619,16 +619,12 @@
     <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +943,7 @@
   <dimension ref="A1:CG67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1031,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="90"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1046,24 +1042,22 @@
         <v>0.1521939264682019</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="7">
+      <c r="J5" s="1"/>
+      <c r="K5" s="7">
         <v>26.3</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="76">
-        <f>(I6/I5)-1</f>
+      <c r="N5" s="1"/>
+      <c r="O5" s="76">
+        <f>(K6/K5)-1</f>
         <v>5.8254022983268872E-2</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
@@ -1074,24 +1068,22 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="91">
+      <c r="J6" s="1"/>
+      <c r="K6" s="87">
         <f>C66</f>
         <v>27.832080804459974</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="75">
+      <c r="N6" s="1"/>
+      <c r="O6" s="75">
         <v>45052</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
@@ -1886,7 +1878,7 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="J20" s="65">
-        <f t="shared" ref="J20:Q20" si="11">I20+0.25%</f>
+        <f t="shared" ref="J20:N20" si="11">I20+0.25%</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="K20" s="65">
@@ -1924,15 +1916,15 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1955,43 +1947,43 @@
         <v>216103</v>
       </c>
       <c r="H22" s="22">
-        <f>H23*H11</f>
+        <f t="shared" ref="H22:Q22" si="12">H23*H11</f>
         <v>243677.83000000002</v>
       </c>
-      <c r="I22" s="86">
-        <f>I23*I11</f>
+      <c r="I22" s="19">
+        <f t="shared" si="12"/>
         <v>279835.31977500004</v>
       </c>
-      <c r="J22" s="86">
-        <f>J23*J11</f>
+      <c r="J22" s="19">
+        <f t="shared" si="12"/>
         <v>321622.69913235004</v>
       </c>
-      <c r="K22" s="86">
-        <f>K23*K11</f>
+      <c r="K22" s="19">
+        <f t="shared" si="12"/>
         <v>366067.22719361028</v>
       </c>
-      <c r="L22" s="86">
-        <f>L23*L11</f>
+      <c r="L22" s="19">
+        <f t="shared" si="12"/>
         <v>409257.89284810814</v>
       </c>
-      <c r="M22" s="86">
-        <f>M23*M11</f>
+      <c r="M22" s="19">
+        <f t="shared" si="12"/>
         <v>441033.84495710063</v>
       </c>
-      <c r="N22" s="86">
-        <f>N23*N11</f>
+      <c r="N22" s="19">
+        <f t="shared" si="12"/>
         <v>499681.96263756615</v>
       </c>
-      <c r="O22" s="86">
-        <f>O23*O11</f>
+      <c r="O22" s="19">
+        <f t="shared" si="12"/>
         <v>546652.06712549727</v>
       </c>
-      <c r="P22" s="86">
-        <f>P23*P11</f>
+      <c r="P22" s="19">
+        <f t="shared" si="12"/>
         <v>598037.36143529415</v>
       </c>
-      <c r="Q22" s="86">
-        <f>Q23*Q11</f>
+      <c r="Q22" s="19">
+        <f t="shared" si="12"/>
         <v>654252.87341021188</v>
       </c>
     </row>
@@ -2028,23 +2020,23 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="J23" s="65">
-        <f t="shared" ref="J23:Q23" si="12">I23+0.25%</f>
+        <f t="shared" ref="J23:N23" si="13">I23+0.25%</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="K23" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34750000000000003</v>
       </c>
       <c r="L23" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="M23" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35250000000000004</v>
       </c>
       <c r="N23" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35500000000000004</v>
       </c>
       <c r="O23" s="65">
@@ -2052,11 +2044,11 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="P23" s="65">
-        <f t="shared" ref="P23:Q23" si="13">35.5%</f>
+        <f t="shared" ref="P23:Q23" si="14">35.5%</f>
         <v>0.35499999999999998</v>
       </c>
       <c r="Q23" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35499999999999998</v>
       </c>
     </row>
@@ -2103,40 +2095,40 @@
         <f>H43</f>
         <v>12183.891500000002</v>
       </c>
-      <c r="I25" s="86">
-        <f t="shared" ref="I25:Q25" si="14">I43</f>
+      <c r="I25" s="19">
+        <f t="shared" ref="I25:Q25" si="15">I43</f>
         <v>13889.636310000002</v>
       </c>
-      <c r="J25" s="86">
-        <f t="shared" si="14"/>
+      <c r="J25" s="19">
+        <f t="shared" si="15"/>
         <v>12119.116199190001</v>
       </c>
-      <c r="K25" s="86">
-        <f t="shared" si="14"/>
+      <c r="K25" s="19">
+        <f t="shared" si="15"/>
         <v>13694.601305084698</v>
       </c>
-      <c r="L25" s="86">
-        <f t="shared" si="14"/>
+      <c r="L25" s="19">
+        <f t="shared" si="15"/>
         <v>15201.007448644015</v>
       </c>
-      <c r="M25" s="86">
-        <f t="shared" si="14"/>
+      <c r="M25" s="19">
+        <f t="shared" si="15"/>
         <v>16265.077970049098</v>
       </c>
-      <c r="N25" s="86">
-        <f t="shared" si="14"/>
+      <c r="N25" s="19">
+        <f t="shared" si="15"/>
         <v>18298.212716305236</v>
       </c>
-      <c r="O25" s="86">
-        <f t="shared" si="14"/>
+      <c r="O25" s="19">
+        <f t="shared" si="15"/>
         <v>20018.24471163793</v>
       </c>
-      <c r="P25" s="86">
-        <f t="shared" si="14"/>
+      <c r="P25" s="19">
+        <f t="shared" si="15"/>
         <v>21899.959714531898</v>
       </c>
-      <c r="Q25" s="86">
-        <f t="shared" si="14"/>
+      <c r="Q25" s="19">
+        <f t="shared" si="15"/>
         <v>23958.5559276979</v>
       </c>
     </row>
@@ -2161,43 +2153,43 @@
         <v>-117</v>
       </c>
       <c r="H26" s="72">
-        <f>H27*H11</f>
+        <f t="shared" ref="H26:Q26" si="16">H27*H11</f>
         <v>-416.72106111093046</v>
       </c>
-      <c r="I26" s="87">
-        <f>I27*I11</f>
+      <c r="I26" s="12">
+        <f t="shared" si="16"/>
         <v>-475.06200966646071</v>
       </c>
-      <c r="J26" s="87">
-        <f>J27*J11</f>
+      <c r="J26" s="12">
+        <f t="shared" si="16"/>
         <v>-542.04575302943169</v>
       </c>
-      <c r="K26" s="87">
-        <f>K27*K11</f>
+      <c r="K26" s="12">
+        <f t="shared" si="16"/>
         <v>-612.51170092325776</v>
       </c>
-      <c r="L26" s="87">
-        <f>L27*L11</f>
+      <c r="L26" s="12">
+        <f t="shared" si="16"/>
         <v>-679.88798802481608</v>
       </c>
-      <c r="M26" s="87">
-        <f>M27*M11</f>
+      <c r="M26" s="12">
+        <f t="shared" si="16"/>
         <v>-727.48014718655327</v>
       </c>
-      <c r="N26" s="87">
-        <f>N27*N11</f>
+      <c r="N26" s="12">
+        <f t="shared" si="16"/>
         <v>-818.41516558487251</v>
       </c>
-      <c r="O26" s="87">
-        <f>O27*O11</f>
+      <c r="O26" s="12">
+        <f t="shared" si="16"/>
         <v>-895.3461911498506</v>
       </c>
-      <c r="P26" s="87">
-        <f>P27*P11</f>
+      <c r="P26" s="12">
+        <f t="shared" si="16"/>
         <v>-979.50873311793657</v>
       </c>
-      <c r="Q26" s="87">
-        <f>Q27*Q11</f>
+      <c r="Q26" s="12">
+        <f t="shared" si="16"/>
         <v>-1071.5825540310227</v>
       </c>
     </row>
@@ -2267,15 +2259,14 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="88"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -2283,19 +2274,19 @@
         <v>11</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" ref="C29:F29" si="15">C19+C22+C25</f>
+        <f t="shared" ref="C29:F29" si="17">C19+C22+C25</f>
         <v>62254.985000000001</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>97924.134000000005</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>159892</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>234904</v>
       </c>
       <c r="G29" s="12">
@@ -2303,43 +2294,43 @@
         <v>306809</v>
       </c>
       <c r="H29" s="72">
-        <f t="shared" ref="H29:Q29" si="16">H19+H22+H25</f>
+        <f t="shared" ref="H29:Q29" si="18">H19+H22+H25</f>
         <v>349032.65650000004</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>401982.41555999999</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>459594.17586159008</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>524608.57307170623</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>588162.05743599543</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>635589.20067576482</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>722075.62488189142</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>789950.73362078902</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>864206.10258114338</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>945441.47622377099</v>
       </c>
     </row>
@@ -2349,63 +2340,63 @@
         <v>16</v>
       </c>
       <c r="C30" s="82">
-        <f>C29/C11</f>
+        <f t="shared" ref="C30:Q30" si="19">C29/C11</f>
         <v>0.61147954482809141</v>
       </c>
       <c r="D30" s="82">
-        <f>D29/D11</f>
+        <f t="shared" si="19"/>
         <v>0.59032655140139167</v>
       </c>
       <c r="E30" s="82">
-        <f>E29/E11</f>
+        <f t="shared" si="19"/>
         <v>0.49851280484382893</v>
       </c>
       <c r="F30" s="82">
-        <f>F29/F11</f>
+        <f t="shared" si="19"/>
         <v>0.47146851209961482</v>
       </c>
       <c r="G30" s="82">
-        <f>G29/G11</f>
+        <f t="shared" si="19"/>
         <v>0.47089456599313939</v>
       </c>
       <c r="H30" s="20">
-        <f>H29/H11</f>
+        <f t="shared" si="19"/>
         <v>0.48700000000000004</v>
       </c>
       <c r="I30" s="66">
-        <f>I29/I11</f>
+        <f t="shared" si="19"/>
         <v>0.49199999999999994</v>
       </c>
       <c r="J30" s="66">
-        <f>J29/J11</f>
+        <f t="shared" si="19"/>
         <v>0.49300000000000005</v>
       </c>
       <c r="K30" s="66">
-        <f>K29/K11</f>
+        <f t="shared" si="19"/>
         <v>0.49800000000000005</v>
       </c>
       <c r="L30" s="66">
-        <f>L29/L11</f>
+        <f t="shared" si="19"/>
         <v>0.503</v>
       </c>
       <c r="M30" s="66">
-        <f>M29/M11</f>
+        <f t="shared" si="19"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="N30" s="66">
-        <f>N29/N11</f>
+        <f t="shared" si="19"/>
         <v>0.51300000000000012</v>
       </c>
       <c r="O30" s="66">
-        <f>O29/O11</f>
+        <f t="shared" si="19"/>
         <v>0.5129999999999999</v>
       </c>
       <c r="P30" s="66">
-        <f>P29/P11</f>
+        <f t="shared" si="19"/>
         <v>0.51300000000000001</v>
       </c>
       <c r="Q30" s="66">
-        <f>Q29/Q11</f>
+        <f t="shared" si="19"/>
         <v>0.51300000000000001</v>
       </c>
     </row>
@@ -2434,19 +2425,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:F32" si="17">C16-C29</f>
+        <f t="shared" ref="C32:F32" si="20">C16-C29</f>
         <v>-5037.8329999999987</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7043.3130000000092</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14880</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>38441</v>
       </c>
       <c r="G32" s="12">
@@ -2454,43 +2445,43 @@
         <v>39017</v>
       </c>
       <c r="H32" s="72">
-        <f t="shared" ref="H32:Q32" si="18">H16-H29</f>
+        <f t="shared" ref="H32:Q32" si="21">H16-H29</f>
         <v>31534.777999999991</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35949.646920000087</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>44747.505966240016</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50564.681741851149</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>56126.796733454801</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>60055.672504796647</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>67562.631567896227</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>81612.843824370182</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>97707.512572527048</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>116106.84795730538</v>
       </c>
     </row>
@@ -2503,15 +2494,6 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -2519,19 +2501,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:F34" si="19">C32+C26</f>
+        <f t="shared" ref="C34:F34" si="22">C32+C26</f>
         <v>-5475.7979999999989</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-6687.9490000000096</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>14813</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>38262</v>
       </c>
       <c r="G34" s="12">
@@ -2539,43 +2521,43 @@
         <v>38900</v>
       </c>
       <c r="H34" s="72">
-        <f t="shared" ref="H34:Q34" si="20">H32+H26</f>
+        <f t="shared" ref="H34:Q34" si="23">H32+H26</f>
         <v>31118.056938889062</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>35474.584910333622</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>44205.460213210587</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>49952.170040927893</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>55446.908745429988</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>59328.192357610096</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>66744.216402311358</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>80717.497633220337</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>96728.00383940911</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>115035.26540327436</v>
       </c>
     </row>
@@ -2588,15 +2570,14 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="88"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -2604,11 +2585,11 @@
         <v>15</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" ref="C36:F36" si="21">C32</f>
+        <f t="shared" ref="C36:F36" si="24">C32</f>
         <v>-5037.8329999999987</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-7043.3130000000092</v>
       </c>
       <c r="E36" s="12">
@@ -2616,7 +2597,7 @@
         <v>14880</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>38441</v>
       </c>
       <c r="G36" s="12">
@@ -2624,43 +2605,43 @@
         <v>39017</v>
       </c>
       <c r="H36" s="72">
-        <f t="shared" ref="H36:Q36" si="22">H32</f>
+        <f t="shared" ref="H36:Q36" si="25">H32</f>
         <v>31534.777999999991</v>
       </c>
-      <c r="I36" s="87">
-        <f t="shared" si="22"/>
+      <c r="I36" s="12">
+        <f t="shared" si="25"/>
         <v>35949.646920000087</v>
       </c>
-      <c r="J36" s="87">
-        <f t="shared" si="22"/>
+      <c r="J36" s="12">
+        <f t="shared" si="25"/>
         <v>44747.505966240016</v>
       </c>
-      <c r="K36" s="87">
-        <f t="shared" si="22"/>
+      <c r="K36" s="12">
+        <f t="shared" si="25"/>
         <v>50564.681741851149</v>
       </c>
-      <c r="L36" s="87">
-        <f t="shared" si="22"/>
+      <c r="L36" s="12">
+        <f t="shared" si="25"/>
         <v>56126.796733454801</v>
       </c>
-      <c r="M36" s="87">
-        <f t="shared" si="22"/>
+      <c r="M36" s="12">
+        <f t="shared" si="25"/>
         <v>60055.672504796647</v>
       </c>
-      <c r="N36" s="87">
-        <f t="shared" si="22"/>
+      <c r="N36" s="12">
+        <f t="shared" si="25"/>
         <v>67562.631567896227</v>
       </c>
-      <c r="O36" s="87">
-        <f t="shared" si="22"/>
+      <c r="O36" s="12">
+        <f t="shared" si="25"/>
         <v>81612.843824370182</v>
       </c>
-      <c r="P36" s="87">
-        <f t="shared" si="22"/>
+      <c r="P36" s="12">
+        <f t="shared" si="25"/>
         <v>97707.512572527048</v>
       </c>
-      <c r="Q36" s="87">
-        <f t="shared" si="22"/>
+      <c r="Q36" s="12">
+        <f t="shared" si="25"/>
         <v>116106.84795730538</v>
       </c>
     </row>
@@ -2670,63 +2651,63 @@
         <v>16</v>
       </c>
       <c r="C37" s="82">
-        <f>C36/C11</f>
+        <f t="shared" ref="C37:Q37" si="26">C36/C11</f>
         <v>-4.9482492522645978E-2</v>
       </c>
       <c r="D37" s="82">
-        <f>D36/D11</f>
+        <f t="shared" si="26"/>
         <v>-4.2459958581105198E-2</v>
       </c>
       <c r="E37" s="82">
-        <f>E36/E11</f>
+        <f t="shared" si="26"/>
         <v>4.6393006129613577E-2</v>
       </c>
       <c r="F37" s="82">
-        <f>F36/F11</f>
+        <f t="shared" si="26"/>
         <v>7.7153735456277003E-2</v>
       </c>
       <c r="G37" s="82">
-        <f>G36/G11</f>
+        <f t="shared" si="26"/>
         <v>5.9883814625236939E-2</v>
       </c>
       <c r="H37" s="69">
-        <f>H36/H11</f>
+        <f t="shared" si="26"/>
         <v>4.3999999999999991E-2</v>
       </c>
       <c r="I37" s="65">
-        <f>I36/I11</f>
+        <f t="shared" si="26"/>
         <v>4.4000000000000102E-2</v>
       </c>
       <c r="J37" s="65">
-        <f>J36/J11</f>
+        <f t="shared" si="26"/>
         <v>4.8000000000000015E-2</v>
       </c>
       <c r="K37" s="65">
-        <f>K36/K11</f>
+        <f t="shared" si="26"/>
         <v>4.7999999999999952E-2</v>
       </c>
       <c r="L37" s="65">
-        <f>L36/L11</f>
+        <f t="shared" si="26"/>
         <v>4.799999999999998E-2</v>
       </c>
       <c r="M37" s="65">
-        <f>M36/M11</f>
+        <f t="shared" si="26"/>
         <v>4.799999999999998E-2</v>
       </c>
       <c r="N37" s="65">
-        <f>N36/N11</f>
+        <f t="shared" si="26"/>
         <v>4.799999999999998E-2</v>
       </c>
       <c r="O37" s="65">
-        <f>O36/O11</f>
+        <f t="shared" si="26"/>
         <v>5.3000000000000103E-2</v>
       </c>
       <c r="P37" s="65">
-        <f>P36/P11</f>
+        <f t="shared" si="26"/>
         <v>5.8000000000000072E-2</v>
       </c>
       <c r="Q37" s="65">
-        <f>Q36/Q11</f>
+        <f t="shared" si="26"/>
         <v>6.3000000000000098E-2</v>
       </c>
     </row>
@@ -2738,15 +2719,11 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -2772,40 +2749,40 @@
         <f>H40*H36</f>
         <v>6584.4616463999982</v>
       </c>
-      <c r="I39" s="86">
-        <f t="shared" ref="I39:Q39" si="23">I40*I36</f>
+      <c r="I39" s="19">
+        <f t="shared" ref="I39:Q39" si="27">I40*I36</f>
         <v>7506.2862768960185</v>
       </c>
-      <c r="J39" s="86">
-        <f t="shared" si="23"/>
+      <c r="J39" s="19">
+        <f t="shared" si="27"/>
         <v>9343.2792457509167</v>
       </c>
-      <c r="K39" s="86">
-        <f t="shared" si="23"/>
+      <c r="K39" s="19">
+        <f t="shared" si="27"/>
         <v>10557.905547698521</v>
       </c>
-      <c r="L39" s="86">
-        <f t="shared" si="23"/>
+      <c r="L39" s="19">
+        <f t="shared" si="27"/>
         <v>11719.275157945363</v>
       </c>
-      <c r="M39" s="86">
-        <f t="shared" si="23"/>
+      <c r="M39" s="19">
+        <f t="shared" si="27"/>
         <v>12539.62441900154</v>
       </c>
-      <c r="N39" s="86">
-        <f t="shared" si="23"/>
+      <c r="N39" s="19">
+        <f t="shared" si="27"/>
         <v>14107.077471376733</v>
       </c>
-      <c r="O39" s="86">
-        <f t="shared" si="23"/>
+      <c r="O39" s="19">
+        <f t="shared" si="27"/>
         <v>17040.761790528497</v>
       </c>
-      <c r="P39" s="86">
-        <f t="shared" si="23"/>
+      <c r="P39" s="19">
+        <f t="shared" si="27"/>
         <v>20401.328625143648</v>
       </c>
-      <c r="Q39" s="86">
-        <f t="shared" si="23"/>
+      <c r="Q39" s="19">
+        <f t="shared" si="27"/>
         <v>24243.109853485363</v>
       </c>
     </row>
@@ -2815,11 +2792,11 @@
         <v>18</v>
       </c>
       <c r="C40" s="83">
-        <f t="shared" ref="C40:F40" si="24">C39/C36</f>
+        <f t="shared" ref="C40:F40" si="28">C39/C36</f>
         <v>5.1609491620702806E-3</v>
       </c>
       <c r="D40" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.3294435445364958E-3</v>
       </c>
       <c r="E40" s="83">
@@ -2827,7 +2804,7 @@
         <v>-5.779569892473118E-3</v>
       </c>
       <c r="F40" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.19869410265081552</v>
       </c>
       <c r="G40" s="83">
@@ -2837,31 +2814,31 @@
       <c r="H40" s="71">
         <v>0.20880000000000001</v>
       </c>
-      <c r="I40" s="92">
+      <c r="I40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="J40" s="92">
+      <c r="J40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="K40" s="92">
+      <c r="K40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="L40" s="92">
+      <c r="L40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="M40" s="92">
+      <c r="M40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="N40" s="92">
+      <c r="N40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="O40" s="92">
+      <c r="O40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="P40" s="92">
+      <c r="P40" s="88">
         <v>0.20880000000000001</v>
       </c>
-      <c r="Q40" s="92">
+      <c r="Q40" s="88">
         <v>0.20880000000000001</v>
       </c>
     </row>
@@ -3160,43 +3137,43 @@
         <v>10842</v>
       </c>
       <c r="H43" s="22">
-        <f>H44*H11</f>
+        <f t="shared" ref="H43:Q43" si="29">H44*H11</f>
         <v>12183.891500000002</v>
       </c>
       <c r="I43" s="19">
-        <f>I44*I11</f>
+        <f t="shared" si="29"/>
         <v>13889.636310000002</v>
       </c>
       <c r="J43" s="19">
-        <f>J44*J11</f>
+        <f t="shared" si="29"/>
         <v>12119.116199190001</v>
       </c>
       <c r="K43" s="19">
-        <f>K44*K11</f>
+        <f t="shared" si="29"/>
         <v>13694.601305084698</v>
       </c>
       <c r="L43" s="19">
-        <f>L44*L11</f>
+        <f t="shared" si="29"/>
         <v>15201.007448644015</v>
       </c>
       <c r="M43" s="19">
-        <f>M44*M11</f>
+        <f t="shared" si="29"/>
         <v>16265.077970049098</v>
       </c>
       <c r="N43" s="19">
-        <f>N44*N11</f>
+        <f t="shared" si="29"/>
         <v>18298.212716305236</v>
       </c>
       <c r="O43" s="19">
-        <f>O44*O11</f>
+        <f t="shared" si="29"/>
         <v>20018.24471163793</v>
       </c>
       <c r="P43" s="19">
-        <f>P44*P11</f>
+        <f t="shared" si="29"/>
         <v>21899.959714531898</v>
       </c>
       <c r="Q43" s="19">
-        <f>Q44*Q11</f>
+        <f t="shared" si="29"/>
         <v>23958.5559276979</v>
       </c>
     </row>
@@ -3291,43 +3268,43 @@
         <v>-8374</v>
       </c>
       <c r="H46" s="22">
-        <f>H47*H11</f>
+        <f t="shared" ref="H46:Q46" si="30">H47*H11</f>
         <v>-8494.7005000000008</v>
       </c>
-      <c r="I46" s="86">
-        <f>I47*I11</f>
+      <c r="I46" s="19">
+        <f t="shared" si="30"/>
         <v>-8866.9211400000004</v>
       </c>
-      <c r="J46" s="86">
-        <f>J47*J11</f>
+      <c r="J46" s="19">
+        <f t="shared" si="30"/>
         <v>-9184.9173131099997</v>
       </c>
-      <c r="K46" s="86">
-        <f>K47*K11</f>
+      <c r="K46" s="19">
+        <f t="shared" si="30"/>
         <v>-10534.308696218999</v>
       </c>
-      <c r="L46" s="86">
-        <f>L47*L11</f>
+      <c r="L46" s="19">
+        <f t="shared" si="30"/>
         <v>-11693.082652803088</v>
       </c>
-      <c r="M46" s="86">
-        <f>M47*M11</f>
+      <c r="M46" s="19">
+        <f t="shared" si="30"/>
         <v>-12511.598438499306</v>
       </c>
-      <c r="N46" s="86">
-        <f>N47*N11</f>
+      <c r="N46" s="19">
+        <f t="shared" si="30"/>
         <v>-14075.548243311721</v>
       </c>
-      <c r="O46" s="86">
-        <f>O47*O11</f>
+      <c r="O46" s="19">
+        <f t="shared" si="30"/>
         <v>-15398.649778183024</v>
       </c>
-      <c r="P46" s="86">
-        <f>P47*P11</f>
+      <c r="P46" s="19">
+        <f t="shared" si="30"/>
         <v>-16846.12285733223</v>
       </c>
-      <c r="Q46" s="86">
-        <f>Q47*Q11</f>
+      <c r="Q46" s="19">
+        <f t="shared" si="30"/>
         <v>-18429.658405921462</v>
       </c>
     </row>
@@ -3361,11 +3338,11 @@
         <v>-1.1852527453974783E-2</v>
       </c>
       <c r="I47" s="53">
-        <f t="shared" ref="I47:J47" si="25">H47+0.1%</f>
+        <f t="shared" ref="I47:J47" si="31">H47+0.1%</f>
         <v>-1.0852527453974782E-2</v>
       </c>
       <c r="J47" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-9.8525274539747812E-3</v>
       </c>
       <c r="K47" s="53">
@@ -3373,27 +3350,27 @@
         <v>-0.01</v>
       </c>
       <c r="L47" s="53">
-        <f t="shared" ref="L47:Q47" si="26">-1%</f>
+        <f t="shared" ref="L47:Q47" si="32">-1%</f>
         <v>-0.01</v>
       </c>
       <c r="M47" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.01</v>
       </c>
       <c r="N47" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.01</v>
       </c>
       <c r="O47" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.01</v>
       </c>
       <c r="P47" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.01</v>
       </c>
       <c r="Q47" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.01</v>
       </c>
     </row>
@@ -3405,15 +3382,11 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -3436,43 +3409,43 @@
         <v>10521</v>
       </c>
       <c r="H49" s="22">
-        <f>H50*H11</f>
+        <f t="shared" ref="H49:Q49" si="33">H50*H11</f>
         <v>11467.192000000001</v>
       </c>
-      <c r="I49" s="86">
-        <f>I50*I11</f>
+      <c r="I49" s="19">
+        <f t="shared" si="33"/>
         <v>13072.598880000001</v>
       </c>
-      <c r="J49" s="86">
-        <f>J50*J11</f>
+      <c r="J49" s="19">
+        <f t="shared" si="33"/>
         <v>14915.835322080002</v>
       </c>
-      <c r="K49" s="86">
-        <f>K50*K11</f>
+      <c r="K49" s="19">
+        <f t="shared" si="33"/>
         <v>16854.8939139504</v>
       </c>
-      <c r="L49" s="86">
-        <f>L50*L11</f>
+      <c r="L49" s="19">
+        <f t="shared" si="33"/>
         <v>18708.932244484942</v>
       </c>
-      <c r="M49" s="86">
-        <f>M50*M11</f>
+      <c r="M49" s="19">
+        <f t="shared" si="33"/>
         <v>20018.557501598891</v>
       </c>
-      <c r="N49" s="86">
-        <f>N50*N11</f>
+      <c r="N49" s="19">
+        <f t="shared" si="33"/>
         <v>22520.877189298753</v>
       </c>
-      <c r="O49" s="86">
-        <f>O50*O11</f>
+      <c r="O49" s="19">
+        <f t="shared" si="33"/>
         <v>24637.839645092838</v>
       </c>
-      <c r="P49" s="86">
-        <f>P50*P11</f>
+      <c r="P49" s="19">
+        <f t="shared" si="33"/>
         <v>26953.796571731567</v>
       </c>
-      <c r="Q49" s="86">
-        <f>Q50*Q11</f>
+      <c r="Q49" s="19">
+        <f t="shared" si="33"/>
         <v>29487.453449474338</v>
       </c>
     </row>
@@ -3504,31 +3477,31 @@
       <c r="H50" s="74">
         <v>1.6E-2</v>
       </c>
-      <c r="I50" s="89">
+      <c r="I50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="J50" s="89">
+      <c r="J50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="K50" s="89">
+      <c r="K50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="L50" s="89">
+      <c r="L50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="M50" s="89">
+      <c r="M50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="N50" s="89">
+      <c r="N50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="O50" s="89">
+      <c r="O50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="P50" s="89">
+      <c r="P50" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="Q50" s="89">
+      <c r="Q50" s="85">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -3541,15 +3514,14 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="88"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -3557,19 +3529,19 @@
         <v>23</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" ref="C52:F52" si="27">C36+C39</f>
+        <f t="shared" ref="C52:F52" si="34">C36+C39</f>
         <v>-5063.8329999999987</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>-7059.7200000000093</v>
       </c>
       <c r="E52" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>14794</v>
       </c>
       <c r="F52" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>46079</v>
       </c>
       <c r="G52" s="12">
@@ -3580,39 +3552,39 @@
         <f>H36+H39</f>
         <v>38119.23964639999</v>
       </c>
-      <c r="I52" s="87">
-        <f t="shared" ref="I52:Q52" si="28">I36+I39</f>
+      <c r="I52" s="12">
+        <f t="shared" ref="I52:P52" si="35">I36+I39</f>
         <v>43455.933196896105</v>
       </c>
-      <c r="J52" s="87">
-        <f t="shared" si="28"/>
+      <c r="J52" s="12">
+        <f t="shared" si="35"/>
         <v>54090.785211990937</v>
       </c>
-      <c r="K52" s="87">
-        <f t="shared" si="28"/>
+      <c r="K52" s="12">
+        <f t="shared" si="35"/>
         <v>61122.587289549672</v>
       </c>
-      <c r="L52" s="87">
-        <f t="shared" si="28"/>
+      <c r="L52" s="12">
+        <f t="shared" si="35"/>
         <v>67846.071891400163</v>
       </c>
-      <c r="M52" s="87">
-        <f t="shared" si="28"/>
+      <c r="M52" s="12">
+        <f t="shared" si="35"/>
         <v>72595.296923798189</v>
       </c>
-      <c r="N52" s="87">
-        <f t="shared" si="28"/>
+      <c r="N52" s="12">
+        <f t="shared" si="35"/>
         <v>81669.709039272959</v>
       </c>
-      <c r="O52" s="87">
-        <f t="shared" si="28"/>
+      <c r="O52" s="12">
+        <f t="shared" si="35"/>
         <v>98653.605614898683</v>
       </c>
-      <c r="P52" s="87">
-        <f t="shared" si="28"/>
+      <c r="P52" s="12">
+        <f t="shared" si="35"/>
         <v>118108.8411976707</v>
       </c>
-      <c r="Q52" s="87">
+      <c r="Q52" s="12">
         <f>Q36+Q39</f>
         <v>140349.95781079074</v>
       </c>
@@ -3623,19 +3595,19 @@
         <v>24</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" ref="C53:F53" si="29">C34-C39</f>
+        <f t="shared" ref="C53:F53" si="36">C34-C39</f>
         <v>-5449.7979999999989</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>-6671.5420000000095</v>
       </c>
       <c r="E53" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>14899</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>30624</v>
       </c>
       <c r="G53" s="12">
@@ -3646,40 +3618,40 @@
         <f>H34-H39</f>
         <v>24533.595292489063</v>
       </c>
-      <c r="I53" s="87">
-        <f t="shared" ref="I53:Q53" si="30">I34-I39</f>
+      <c r="I53" s="12">
+        <f t="shared" ref="I53:Q53" si="37">I34-I39</f>
         <v>27968.298633437604</v>
       </c>
-      <c r="J53" s="87">
-        <f t="shared" si="30"/>
+      <c r="J53" s="12">
+        <f t="shared" si="37"/>
         <v>34862.180967459673</v>
       </c>
-      <c r="K53" s="87">
-        <f t="shared" si="30"/>
+      <c r="K53" s="12">
+        <f t="shared" si="37"/>
         <v>39394.26449322937</v>
       </c>
-      <c r="L53" s="87">
-        <f t="shared" si="30"/>
+      <c r="L53" s="12">
+        <f t="shared" si="37"/>
         <v>43727.633587484626</v>
       </c>
-      <c r="M53" s="87">
-        <f t="shared" si="30"/>
+      <c r="M53" s="12">
+        <f t="shared" si="37"/>
         <v>46788.567938608554</v>
       </c>
-      <c r="N53" s="87">
-        <f t="shared" si="30"/>
+      <c r="N53" s="12">
+        <f t="shared" si="37"/>
         <v>52637.138930934627</v>
       </c>
-      <c r="O53" s="87">
-        <f t="shared" si="30"/>
+      <c r="O53" s="12">
+        <f t="shared" si="37"/>
         <v>63676.735842691836</v>
       </c>
-      <c r="P53" s="87">
-        <f t="shared" si="30"/>
+      <c r="P53" s="12">
+        <f t="shared" si="37"/>
         <v>76326.675214265459</v>
       </c>
-      <c r="Q53" s="87">
-        <f t="shared" si="30"/>
+      <c r="Q53" s="12">
+        <f t="shared" si="37"/>
         <v>90792.155549788993</v>
       </c>
       <c r="R53" s="64">
@@ -3687,271 +3659,271 @@
         <v>92607.998660784768</v>
       </c>
       <c r="S53" s="64">
-        <f t="shared" ref="S53:CD53" si="31">R53*(1+$D$6)</f>
+        <f t="shared" ref="S53:CD53" si="38">R53*(1+$D$6)</f>
         <v>94460.158634000458</v>
       </c>
       <c r="T53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>96349.361806680463</v>
       </c>
       <c r="U53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>98276.349042814079</v>
       </c>
       <c r="V53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>100241.87602367037</v>
       </c>
       <c r="W53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>102246.71354414377</v>
       </c>
       <c r="X53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>104291.64781502665</v>
       </c>
       <c r="Y53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>106377.48077132719</v>
       </c>
       <c r="Z53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>108505.03038675373</v>
       </c>
       <c r="AA53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>110675.13099448881</v>
       </c>
       <c r="AB53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>112888.63361437859</v>
       </c>
       <c r="AC53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>115146.40628666616</v>
       </c>
       <c r="AD53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>117449.33441239948</v>
       </c>
       <c r="AE53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>119798.32110064747</v>
       </c>
       <c r="AF53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>122194.28752266042</v>
       </c>
       <c r="AG53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>124638.17327311363</v>
       </c>
       <c r="AH53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>127130.93673857591</v>
       </c>
       <c r="AI53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>129673.55547334743</v>
       </c>
       <c r="AJ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>132267.02658281437</v>
       </c>
       <c r="AK53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>134912.36711447066</v>
       </c>
       <c r="AL53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>137610.61445676009</v>
       </c>
       <c r="AM53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>140362.82674589529</v>
       </c>
       <c r="AN53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>143170.08328081321</v>
       </c>
       <c r="AO53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>146033.48494642947</v>
       </c>
       <c r="AP53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>148954.15464535807</v>
       </c>
       <c r="AQ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>151933.23773826522</v>
       </c>
       <c r="AR53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>154971.90249303053</v>
       </c>
       <c r="AS53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>158071.34054289115</v>
       </c>
       <c r="AT53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>161232.76735374899</v>
       </c>
       <c r="AU53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>164457.42270082398</v>
       </c>
       <c r="AV53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>167746.57115484047</v>
       </c>
       <c r="AW53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>171101.50257793727</v>
       </c>
       <c r="AX53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>174523.53262949601</v>
       </c>
       <c r="AY53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>178014.00328208593</v>
       </c>
       <c r="AZ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>181574.28334772764</v>
       </c>
       <c r="BA53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>185205.76901468221</v>
       </c>
       <c r="BB53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>188909.88439497587</v>
       </c>
       <c r="BC53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>192688.08208287539</v>
       </c>
       <c r="BD53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>196541.8437245329</v>
       </c>
       <c r="BE53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>200472.68059902356</v>
       </c>
       <c r="BF53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>204482.13421100404</v>
       </c>
       <c r="BG53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>208571.77689522412</v>
       </c>
       <c r="BH53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>212743.21243312859</v>
       </c>
       <c r="BI53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>216998.07668179116</v>
       </c>
       <c r="BJ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>221338.03821542699</v>
       </c>
       <c r="BK53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>225764.79897973553</v>
       </c>
       <c r="BL53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>230280.09495933025</v>
       </c>
       <c r="BM53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>234885.69685851687</v>
       </c>
       <c r="BN53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>239583.4107956872</v>
       </c>
       <c r="BO53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>244375.07901160096</v>
       </c>
       <c r="BP53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>249262.58059183299</v>
       </c>
       <c r="BQ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>254247.83220366965</v>
       </c>
       <c r="BR53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>259332.78884774304</v>
       </c>
       <c r="BS53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>264519.44462469791</v>
       </c>
       <c r="BT53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>269809.83351719187</v>
       </c>
       <c r="BU53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>275206.03018753574</v>
       </c>
       <c r="BV53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>280710.15079128643</v>
       </c>
       <c r="BW53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>286324.35380711214</v>
       </c>
       <c r="BX53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>292050.84088325436</v>
       </c>
       <c r="BY53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>297891.85770091944</v>
       </c>
       <c r="BZ53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>303849.69485493784</v>
       </c>
       <c r="CA53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>309926.6887520366</v>
       </c>
       <c r="CB53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>316125.22252707736</v>
       </c>
       <c r="CC53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>322447.72697761894</v>
       </c>
       <c r="CD53" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>328896.68151717132</v>
       </c>
       <c r="CE53" s="64">
-        <f t="shared" ref="CE53:CG53" si="32">CD53*(1+$D$6)</f>
+        <f t="shared" ref="CE53:CG53" si="39">CD53*(1+$D$6)</f>
         <v>335474.61514751473</v>
       </c>
       <c r="CF53" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>342184.10745046503</v>
       </c>
       <c r="CG53" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>349027.78959947434</v>
       </c>
     </row>
@@ -3979,63 +3951,63 @@
         <v>25</v>
       </c>
       <c r="C55" s="26">
-        <f>C52+C43+C46-C49</f>
+        <f t="shared" ref="C55:Q55" si="40">C52+C43+C46-C49</f>
         <v>-8381.3569999999982</v>
       </c>
       <c r="D55" s="26">
-        <f>D52+D43+D46-D49</f>
+        <f t="shared" si="40"/>
         <v>-7019.999000000008</v>
       </c>
       <c r="E55" s="26">
-        <f>E52+E43+E46-E49</f>
+        <f t="shared" si="40"/>
         <v>86964</v>
       </c>
       <c r="F55" s="26">
-        <f>F52+F43+F46-F49</f>
+        <f t="shared" si="40"/>
         <v>69245</v>
       </c>
       <c r="G55" s="26">
-        <f>G52+G43+G46-G49</f>
+        <f t="shared" si="40"/>
         <v>20306</v>
       </c>
       <c r="H55" s="78">
-        <f>H52+H43+H46-H49</f>
+        <f t="shared" si="40"/>
         <v>30341.238646399986</v>
       </c>
       <c r="I55" s="26">
-        <f>I52+I43+I46-I49</f>
+        <f t="shared" si="40"/>
         <v>35406.04948689611</v>
       </c>
       <c r="J55" s="26">
-        <f>J52+J43+J46-J49</f>
+        <f t="shared" si="40"/>
         <v>42109.148775990936</v>
       </c>
       <c r="K55" s="26">
-        <f>K52+K43+K46-K49</f>
+        <f t="shared" si="40"/>
         <v>47427.985984464969</v>
       </c>
       <c r="L55" s="26">
-        <f>L52+L43+L46-L49</f>
+        <f t="shared" si="40"/>
         <v>52645.064442756149</v>
       </c>
       <c r="M55" s="26">
-        <f>M52+M43+M46-M49</f>
+        <f t="shared" si="40"/>
         <v>56330.218953749092</v>
       </c>
       <c r="N55" s="26">
-        <f>N52+N43+N46-N49</f>
+        <f t="shared" si="40"/>
         <v>63371.496322967709</v>
       </c>
       <c r="O55" s="26">
-        <f>O52+O43+O46-O49</f>
+        <f t="shared" si="40"/>
         <v>78635.360903260749</v>
       </c>
       <c r="P55" s="26">
-        <f>P52+P43+P46-P49</f>
+        <f t="shared" si="40"/>
         <v>96208.881483138801</v>
       </c>
       <c r="Q55" s="26">
-        <f>Q52+Q43+Q46-Q49</f>
+        <f t="shared" si="40"/>
         <v>116391.40188309284</v>
       </c>
     </row>
@@ -4050,43 +4022,43 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="70">
-        <f>H55/((1+$D$5)^H9)</f>
+        <f t="shared" ref="H56:Q56" si="41">H55/((1+$D$5)^H9)</f>
         <v>26333.447824538016</v>
       </c>
       <c r="I56" s="67">
-        <f>I55/((1+$D$5)^I9)</f>
+        <f t="shared" si="41"/>
         <v>26670.202231307616</v>
       </c>
       <c r="J56" s="67">
-        <f>J55/((1+$D$5)^J9)</f>
+        <f t="shared" si="41"/>
         <v>27529.588356781653</v>
       </c>
       <c r="K56" s="67">
-        <f>K55/((1+$D$5)^K9)</f>
+        <f t="shared" si="41"/>
         <v>26911.156162600098</v>
       </c>
       <c r="L56" s="67">
-        <f>L55/((1+$D$5)^L9)</f>
+        <f t="shared" si="41"/>
         <v>25925.655963185214</v>
       </c>
       <c r="M56" s="67">
-        <f>M55/((1+$D$5)^M9)</f>
+        <f t="shared" si="41"/>
         <v>24076.200406333039</v>
       </c>
       <c r="N56" s="67">
-        <f>N55/((1+$D$5)^N9)</f>
+        <f t="shared" si="41"/>
         <v>23507.957154530417</v>
       </c>
       <c r="O56" s="67">
-        <f>O55/((1+$D$5)^O9)</f>
+        <f t="shared" si="41"/>
         <v>25317.057703939157</v>
       </c>
       <c r="P56" s="67">
-        <f>P55/((1+$D$5)^P9)</f>
+        <f t="shared" si="41"/>
         <v>26883.44562866972</v>
       </c>
       <c r="Q56" s="67">
-        <f>Q55/((1+$D$5)^Q9)</f>
+        <f t="shared" si="41"/>
         <v>28227.023381809959</v>
       </c>
     </row>
@@ -4357,7 +4329,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="18">
-        <f>C64*$I$5</f>
+        <f>C64*$K$5</f>
         <v>419634.06839999999</v>
       </c>
       <c r="D65" s="18"/>
